--- a/stage2_excels/GA/GA_kfold_two.xlsx
+++ b/stage2_excels/GA/GA_kfold_two.xlsx
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9274873242680286</v>
+        <v>0.9274873242680283</v>
       </c>
     </row>
     <row r="3">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9263334645237815</v>
+        <v>0.9263334645237318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -506,43 +506,43 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.925141031557013</v>
+        <v>0.9251410315572093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>hsv_h_mean</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>yuv_y_median</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9241227642277983</v>
+        <v>0.9173701191599308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hsv_s_mean</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>luv_v_variance</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9220395072808978</v>
+        <v>0.9154556311608918</v>
       </c>
     </row>
   </sheetData>
